--- a/yubin.xlsx
+++ b/yubin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5c8e0f43fcbed2c3/ドキュメント/GitHub/OfficeWorkManual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{1BBC3BE6-20B6-422C-BFA1-DEFEDF9E55B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27593BD4-8043-42B8-9B0E-9B3F036EE3D5}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{1BBC3BE6-20B6-422C-BFA1-DEFEDF9E55B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14604621-420D-4ABD-9472-3EBA1C33D106}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2DE5637-144B-43E9-ADC8-BF6B512E7E82}"/>
   </bookViews>
@@ -83,7 +83,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>規格内は、長辺34cm以内、短辺25cm以内、厚さ3cm以内および重量1kg以内とします.</t>
+    <t>規格内は、長辺34cm以内、短辺25cm以内、厚さ3cm以内および重量1kg以内とします</t>
     <rPh sb="0" eb="3">
       <t>キカクナイ</t>
     </rPh>
@@ -176,6 +176,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -478,7 +482,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
